--- a/Documentação/Planilhas/Layouts/Cockpit_Orcamento.xlsx
+++ b/Documentação/Planilhas/Layouts/Cockpit_Orcamento.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
   <si>
     <t>Campo</t>
   </si>
@@ -254,23 +254,14 @@
     <t>ods_canalvenda</t>
   </si>
   <si>
-    <t>ods_cockpit</t>
-  </si>
-  <si>
-    <t>ods_departamento</t>
-  </si>
-  <si>
-    <t>ods_unineg_canal</t>
-  </si>
-  <si>
-    <t>stg_sige_metas_orcamento</t>
+    <t>BANCO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +291,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -542,7 +540,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -572,22 +570,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1073,84 +1077,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="15" t="str">
+    <row r="3" spans="2:5">
+      <c r="B3" s="14" t="str">
+        <f>ods_cockpit!B9</f>
+        <v>[dbo].[ods_cockpit]</v>
+      </c>
+      <c r="C3" s="21" t="str">
+        <f>ods_cockpit!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D3" s="15" t="str">
         <f>ods_cockpit!B10</f>
         <v>N:\Migracao\Cockpit Orçamento_LN\ods_cockpit.dtsx</v>
       </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="15" t="str">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="14" t="str">
+        <f>ods_departamento!B9</f>
+        <v>[dbo].[ods_departamento]</v>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>ods_departamento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D4" s="15" t="str">
         <f>ods_departamento!B10</f>
         <v>N:\Migracao\Cockpit Orçamento_LN\ods_cockpit.dtsx</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="15" t="str">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="14" t="str">
+        <f>ods_unineg_canal!B9</f>
+        <v>[dbo].[ods_unineg_canal]</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>ods_unineg_canal!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D5" s="15" t="str">
         <f>ods_unineg_canal!B10</f>
         <v>N:\Migracao\Cockpit Orçamento_LN\ods_cockpit.dtsx</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="15" t="str">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="14" t="str">
+        <f>stg_sige_metas_orcamento!B9</f>
+        <v>[dbo].[stg_sige_metas_orcamento]</v>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>stg_sige_metas_orcamento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D6" s="15" t="str">
         <f>stg_sige_metas_orcamento!B10</f>
         <v>N:\Migracao\Cockpit Orçamento_LN\stg_cockpit.dtsx</v>
       </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="16"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="C8" s="21"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
     </row>
   </sheetData>
   <sortState ref="B3:D18">
